--- a/Test_execution/Proiect.xlsx
+++ b/Test_execution/Proiect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdeni\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2904D2A-9DBC-4FF2-9AFC-63B66BA3CBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416AE186-1B9F-44B2-86F6-5C58B46D2E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="132">
   <si>
     <t>TestCaseID - Title</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Deschidem pagina de login
 Introducem user si parola invalida
 Apasam Login</t>
-  </si>
-  <si>
-    <t>Mesaj de eroarea parola invalida si utilizatorul nu poate accesa contul</t>
   </si>
   <si>
     <t>TC3 Login cu username gol</t>
@@ -130,9 +127,6 @@
 Apasam login</t>
   </si>
   <si>
-    <t>Mesaj eroare Username obligatoriu</t>
-  </si>
-  <si>
     <t>TC4 Login cu parola goala</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
 Apasam login</t>
   </si>
   <si>
-    <t>Mesaj de eroare Parola obligatorie</t>
-  </si>
-  <si>
     <t>TC5 Login cu username si parola incorecte</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
 Introducem username invalid
 Intrdocem parola invalida
 Apasam login</t>
-  </si>
-  <si>
-    <t>Mesaj eroare Username sau parola incorecta</t>
   </si>
   <si>
     <t>Deschidem pagina de login
@@ -308,15 +296,7 @@
 Apasam continua</t>
   </si>
   <si>
-    <t>Afiseaza mesaj eroare
-pentru First name</t>
-  </si>
-  <si>
     <t>TC20 Camp gol Last name</t>
-  </si>
-  <si>
-    <t>Afiseaza mesaj eroare
-pentru Last name</t>
   </si>
   <si>
     <t>TC21 Camp gol pentru Zip/Postal code</t>
@@ -325,10 +305,6 @@
     <t>Accesam pagina Your information
  Completam First si Last name
 Apasam contiuna</t>
-  </si>
-  <si>
-    <t>Afiseaza eroare pentru
-campul Zip/Postal code</t>
   </si>
   <si>
     <t>TC22 Afisare corecta informatii
@@ -552,6 +528,12 @@
   </si>
   <si>
     <t>TC6 Login cu sptiu username valid si parola valida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: [First Name/Last Name/Zip/PostalCode] is required </t>
+  </si>
+  <si>
+    <t>“Error: [First Name/Last Name/Zip/PostalCode] is required</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1167,16 +1149,16 @@
         <v>21</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -1193,44 +1175,42 @@
         <v>24</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="7">
-        <v>2</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J4" s="7">
         <v>3</v>
@@ -1239,26 +1219,26 @@
     <row r="5" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J5" s="7">
         <v>4</v>
@@ -1267,552 +1247,542 @@
     <row r="6" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="7">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="7">
-        <v>6</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="12">
-        <v>7</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="12">
-        <v>8</v>
-      </c>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="12">
-        <v>9</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J26" s="12"/>
     </row>
@@ -3681,11 +3651,11 @@
       </c>
       <c r="B2" s="16">
         <f>COUNTIF(TestCases!I2:O60,"Pass")</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="16">
         <f>COUNTIF(TestCases!I2:I60,"Fail")</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="16">
         <f>COUNTIF(TestCases!I2:I60,"Blocked")</f>
@@ -3701,11 +3671,11 @@
       </c>
       <c r="G2" s="18">
         <f>(C2/A2)*100</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H2" s="17">
         <f>(B2/A2)*100</f>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I2" s="18">
         <f>((B2+C2)/A2)*100</f>
